--- a/data/통합파일_최종.xlsx
+++ b/data/통합파일_최종.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sma\Project_Can\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1324759-B0F3-4397-B573-3362FF49C33C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22598471-DC28-4A9D-8B42-A8AC8B516DE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -347,10 +347,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>전세보증반환보증 사고건수(건)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>다세대주택</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -371,19 +367,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>매매가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전세가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전세가율</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>지역코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사고건수(건)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>매매가(만원)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전세가(만원)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전세가율(%)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -806,7 +806,7 @@
   <dimension ref="A1:M73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -825,34 +825,34 @@
         <v>76</v>
       </c>
       <c r="C1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K1" t="s">
+        <v>85</v>
+      </c>
+      <c r="L1" t="s">
         <v>86</v>
-      </c>
-      <c r="D1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K1" t="s">
-        <v>84</v>
-      </c>
-      <c r="L1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -890,7 +890,7 @@
         <v>29959.016393442624</v>
       </c>
       <c r="L2" s="3">
-        <f>K2/J2</f>
+        <f t="shared" ref="L2:L27" si="0">K2/J2</f>
         <v>0.70432616206246312</v>
       </c>
     </row>
@@ -929,7 +929,7 @@
         <v>26146.041666666668</v>
       </c>
       <c r="L3" s="3">
-        <f>K3/J3</f>
+        <f t="shared" si="0"/>
         <v>0.75996329879101898</v>
       </c>
     </row>
@@ -968,7 +968,7 @@
         <v>25816.400000000001</v>
       </c>
       <c r="L4" s="3">
-        <f>K4/J4</f>
+        <f t="shared" si="0"/>
         <v>0.36124760437146852</v>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
         <v>23135.166666666668</v>
       </c>
       <c r="L5" s="3">
-        <f>K5/J5</f>
+        <f t="shared" si="0"/>
         <v>0.46816075007708918</v>
       </c>
     </row>
@@ -1046,7 +1046,7 @@
         <v>25912.493750000001</v>
       </c>
       <c r="L6" s="3">
-        <f>K6/J6</f>
+        <f t="shared" si="0"/>
         <v>0.69484728989902989</v>
       </c>
     </row>
@@ -1085,7 +1085,7 @@
         <v>22957.887640449437</v>
       </c>
       <c r="L7" s="3">
-        <f>K7/J7</f>
+        <f t="shared" si="0"/>
         <v>0.80858669710251274</v>
       </c>
     </row>
@@ -1124,7 +1124,7 @@
         <v>23621.906137184116</v>
       </c>
       <c r="L8" s="3">
-        <f>K8/J8</f>
+        <f t="shared" si="0"/>
         <v>0.86889817271079295</v>
       </c>
     </row>
@@ -1163,7 +1163,7 @@
         <v>21581.178571428572</v>
       </c>
       <c r="L9" s="3">
-        <f>K9/J9</f>
+        <f t="shared" si="0"/>
         <v>0.72482456030556963</v>
       </c>
     </row>
@@ -1202,7 +1202,7 @@
         <v>18724.587628865978</v>
       </c>
       <c r="L10" s="3">
-        <f>K10/J10</f>
+        <f t="shared" si="0"/>
         <v>0.85535551728408832</v>
       </c>
     </row>
@@ -1241,7 +1241,7 @@
         <v>18033.947368421053</v>
       </c>
       <c r="L11" s="3">
-        <f>K11/J11</f>
+        <f t="shared" si="0"/>
         <v>0.86311586338134549</v>
       </c>
     </row>
@@ -1280,7 +1280,7 @@
         <v>18467.894736842107</v>
       </c>
       <c r="L12" s="3">
-        <f>K12/J12</f>
+        <f t="shared" si="0"/>
         <v>0.91746941354628553</v>
       </c>
     </row>
@@ -1319,7 +1319,7 @@
         <v>20824.697986577183</v>
       </c>
       <c r="L13" s="3">
-        <f>K13/J13</f>
+        <f t="shared" si="0"/>
         <v>0.80896571175209486</v>
       </c>
     </row>
@@ -1358,7 +1358,7 @@
         <v>20918.852459016394</v>
       </c>
       <c r="L14" s="3">
-        <f>K14/J14</f>
+        <f t="shared" si="0"/>
         <v>0.63939807102809698</v>
       </c>
     </row>
@@ -1397,7 +1397,7 @@
         <v>24726.354231974921</v>
       </c>
       <c r="L15" s="3">
-        <f>K15/J15</f>
+        <f t="shared" si="0"/>
         <v>0.70640362380460353</v>
       </c>
     </row>
@@ -1436,7 +1436,7 @@
         <v>20982.609970674486</v>
       </c>
       <c r="L16" s="3">
-        <f>K16/J16</f>
+        <f t="shared" si="0"/>
         <v>0.78643590247753381</v>
       </c>
     </row>
@@ -1475,7 +1475,7 @@
         <v>22726.856672158156</v>
       </c>
       <c r="L17" s="3">
-        <f>K17/J17</f>
+        <f t="shared" si="0"/>
         <v>0.90736841426750336</v>
       </c>
     </row>
@@ -1514,7 +1514,7 @@
         <v>18926.126373626375</v>
       </c>
       <c r="L18" s="3">
-        <f>K18/J18</f>
+        <f t="shared" si="0"/>
         <v>0.67214763791051191</v>
       </c>
     </row>
@@ -1553,7 +1553,7 @@
         <v>22409.14364640884</v>
       </c>
       <c r="L19" s="3">
-        <f>K19/J19</f>
+        <f t="shared" si="0"/>
         <v>0.83546066348807313</v>
       </c>
     </row>
@@ -1592,7 +1592,7 @@
         <v>22829.398734177215</v>
       </c>
       <c r="L20" s="3">
-        <f>K20/J20</f>
+        <f t="shared" si="0"/>
         <v>0.79722412884894733</v>
       </c>
     </row>
@@ -1631,7 +1631,7 @@
         <v>24152.268041237112</v>
       </c>
       <c r="L21" s="3">
-        <f>K21/J21</f>
+        <f t="shared" si="0"/>
         <v>0.61699485343275118</v>
       </c>
     </row>
@@ -1670,7 +1670,7 @@
         <v>23078.848314606741</v>
       </c>
       <c r="L22" s="3">
-        <f>K22/J22</f>
+        <f t="shared" si="0"/>
         <v>0.81773193192101268</v>
       </c>
     </row>
@@ -1709,7 +1709,7 @@
         <v>35954.142335766424</v>
       </c>
       <c r="L23" s="3">
-        <f>K23/J23</f>
+        <f t="shared" si="0"/>
         <v>0.6655003110079597</v>
       </c>
     </row>
@@ -1748,7 +1748,7 @@
         <v>33517.774074074077</v>
       </c>
       <c r="L24" s="3">
-        <f>K24/J24</f>
+        <f t="shared" si="0"/>
         <v>0.65139974879164464</v>
       </c>
     </row>
@@ -1787,7 +1787,7 @@
         <v>24936.443804034581</v>
       </c>
       <c r="L25" s="3">
-        <f>K25/J25</f>
+        <f t="shared" si="0"/>
         <v>0.69521311644134098</v>
       </c>
     </row>
@@ -1826,7 +1826,7 @@
         <v>24998.644699140401</v>
       </c>
       <c r="L26" s="3">
-        <f>K26/J26</f>
+        <f t="shared" si="0"/>
         <v>0.63754162605239351</v>
       </c>
     </row>
@@ -1865,8 +1865,8 @@
         <v>12603.333333333334</v>
       </c>
       <c r="L27" s="3">
-        <f>M16</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1.4119479463580886</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1904,7 +1904,7 @@
         <v>7271.4285714285716</v>
       </c>
       <c r="L28" s="3">
-        <f>K28/J28</f>
+        <f t="shared" ref="L28:L73" si="1">K28/J28</f>
         <v>0.75933882324859769</v>
       </c>
     </row>
@@ -1943,7 +1943,7 @@
         <v>12442.594339622641</v>
       </c>
       <c r="L29" s="3">
-        <f>K29/J29</f>
+        <f t="shared" si="1"/>
         <v>1.0599408799117609</v>
       </c>
     </row>
@@ -1982,7 +1982,7 @@
         <v>7726.1904761904761</v>
       </c>
       <c r="L30" s="3">
-        <f>K30/J30</f>
+        <f t="shared" si="1"/>
         <v>0.62085459183673464</v>
       </c>
     </row>
@@ -2021,7 +2021,7 @@
         <v>10860.586206896553</v>
       </c>
       <c r="L31" s="3">
-        <f>K31/J31</f>
+        <f t="shared" si="1"/>
         <v>0.9549806985262268</v>
       </c>
     </row>
@@ -2060,7 +2060,7 @@
         <v>11847</v>
       </c>
       <c r="L32" s="3">
-        <f>K32/J32</f>
+        <f t="shared" si="1"/>
         <v>0.80544236186947338</v>
       </c>
     </row>
@@ -2099,7 +2099,7 @@
         <v>11355.442176870749</v>
       </c>
       <c r="L33" s="3">
-        <f>K33/J33</f>
+        <f t="shared" si="1"/>
         <v>0.9506754184463756</v>
       </c>
     </row>
@@ -2138,7 +2138,7 @@
         <v>13094.189723320158</v>
       </c>
       <c r="L34" s="3">
-        <f>K34/J34</f>
+        <f t="shared" si="1"/>
         <v>1.0235459357246224</v>
       </c>
     </row>
@@ -2177,7 +2177,7 @@
         <v>12979.477611940298</v>
       </c>
       <c r="L35" s="3">
-        <f>K35/J35</f>
+        <f t="shared" si="1"/>
         <v>0.89062653536016634</v>
       </c>
     </row>
@@ -2216,7 +2216,7 @@
         <v>14364.444444444445</v>
       </c>
       <c r="L36" s="3">
-        <f>K36/J36</f>
+        <f t="shared" si="1"/>
         <v>0.76870636495433553</v>
       </c>
     </row>
@@ -2255,7 +2255,7 @@
         <v>13136.8125</v>
       </c>
       <c r="L37" s="3">
-        <f>K37/J37</f>
+        <f t="shared" si="1"/>
         <v>0.71008031692184959</v>
       </c>
     </row>
@@ -2294,7 +2294,7 @@
         <v>19955.208333333332</v>
       </c>
       <c r="L38" s="3">
-        <f>K38/J38</f>
+        <f t="shared" si="1"/>
         <v>0.32845075896122894</v>
       </c>
     </row>
@@ -2333,7 +2333,7 @@
         <v>18630.882352941175</v>
       </c>
       <c r="L39" s="3">
-        <f>K39/J39</f>
+        <f t="shared" si="1"/>
         <v>0.66369555455770091</v>
       </c>
     </row>
@@ -2372,7 +2372,7 @@
         <v>18433.857142857141</v>
       </c>
       <c r="L40" s="3">
-        <f>K40/J40</f>
+        <f t="shared" si="1"/>
         <v>0.58650303833231321</v>
       </c>
     </row>
@@ -2411,7 +2411,7 @@
         <v>13346.30890052356</v>
       </c>
       <c r="L41" s="3">
-        <f>K41/J41</f>
+        <f t="shared" si="1"/>
         <v>0.79545388808211315</v>
       </c>
     </row>
@@ -2450,7 +2450,7 @@
         <v>11470</v>
       </c>
       <c r="L42" s="3">
-        <f>K42/J42</f>
+        <f t="shared" si="1"/>
         <v>0.68914463239855617</v>
       </c>
     </row>
@@ -2489,7 +2489,7 @@
         <v>17325.372340425532</v>
       </c>
       <c r="L43" s="3">
-        <f>K43/J43</f>
+        <f t="shared" si="1"/>
         <v>0.82846182728410511</v>
       </c>
     </row>
@@ -2528,7 +2528,7 @@
         <v>18878.735632183907</v>
       </c>
       <c r="L44" s="3">
-        <f>K44/J44</f>
+        <f t="shared" si="1"/>
         <v>0.53296305109678532</v>
       </c>
     </row>
@@ -2567,7 +2567,7 @@
         <v>15208.130841121496</v>
       </c>
       <c r="L45" s="3">
-        <f>K45/J45</f>
+        <f t="shared" si="1"/>
         <v>0.88695388348142212</v>
       </c>
     </row>
@@ -2606,7 +2606,7 @@
         <v>50244.836363636365</v>
       </c>
       <c r="L46" s="3">
-        <f>K46/J46</f>
+        <f t="shared" si="1"/>
         <v>0.66987532857110399</v>
       </c>
     </row>
@@ -2645,7 +2645,7 @@
         <v>17896.8</v>
       </c>
       <c r="L47" s="3">
-        <f>K47/J47</f>
+        <f t="shared" si="1"/>
         <v>0.42043598363643725</v>
       </c>
     </row>
@@ -2684,7 +2684,7 @@
         <v>9517</v>
       </c>
       <c r="L48" s="3">
-        <f>K48/J48</f>
+        <f t="shared" si="1"/>
         <v>0.83542905707280557</v>
       </c>
     </row>
@@ -2723,7 +2723,7 @@
         <v>7650</v>
       </c>
       <c r="L49" s="3">
-        <f>K49/J49</f>
+        <f t="shared" si="1"/>
         <v>0.8973214285714286</v>
       </c>
     </row>
@@ -2762,7 +2762,7 @@
         <v>13308.177570093458</v>
       </c>
       <c r="L50" s="3">
-        <f>K50/J50</f>
+        <f t="shared" si="1"/>
         <v>0.67983234860342112</v>
       </c>
     </row>
@@ -2801,7 +2801,7 @@
         <v>16600.17105263158</v>
       </c>
       <c r="L51" s="3">
-        <f>K51/J51</f>
+        <f t="shared" si="1"/>
         <v>1.0416724071557362</v>
       </c>
     </row>
@@ -2840,7 +2840,7 @@
         <v>22753.87323943662</v>
       </c>
       <c r="L52" s="3">
-        <f>K52/J52</f>
+        <f t="shared" si="1"/>
         <v>0.8391010512715753</v>
       </c>
     </row>
@@ -2879,7 +2879,7 @@
         <v>18800</v>
       </c>
       <c r="L53" s="3">
-        <f>K53/J53</f>
+        <f t="shared" si="1"/>
         <v>0.96192626034612483</v>
       </c>
     </row>
@@ -2918,7 +2918,7 @@
         <v>53008.06451612903</v>
       </c>
       <c r="L54" s="3">
-        <f>K54/J54</f>
+        <f t="shared" si="1"/>
         <v>0.81992365840880166</v>
       </c>
     </row>
@@ -2957,7 +2957,7 @@
         <v>17636.363636363636</v>
       </c>
       <c r="L55" s="3">
-        <f>K55/J55</f>
+        <f t="shared" si="1"/>
         <v>0.47952047952047955</v>
       </c>
     </row>
@@ -2996,7 +2996,7 @@
         <v>12903.723404255319</v>
       </c>
       <c r="L56" s="3">
-        <f>K56/J56</f>
+        <f t="shared" si="1"/>
         <v>0.81962921528626831</v>
       </c>
     </row>
@@ -3035,7 +3035,7 @@
         <v>9280.9090909090901</v>
       </c>
       <c r="L57" s="3">
-        <f>K57/J57</f>
+        <f t="shared" si="1"/>
         <v>1.0407523510971786</v>
       </c>
     </row>
@@ -3074,7 +3074,7 @@
         <v>10079.213483146068</v>
       </c>
       <c r="L58" s="3">
-        <f>K58/J58</f>
+        <f t="shared" si="1"/>
         <v>0.7603235393922223</v>
       </c>
     </row>
@@ -3113,7 +3113,7 @@
         <v>15524.313725490196</v>
       </c>
       <c r="L59" s="3">
-        <f>K59/J59</f>
+        <f t="shared" si="1"/>
         <v>0.69796961851470363</v>
       </c>
     </row>
@@ -3152,7 +3152,7 @@
         <v>18903</v>
       </c>
       <c r="L60" s="3">
-        <f>K60/J60</f>
+        <f t="shared" si="1"/>
         <v>0.43985607440238178</v>
       </c>
     </row>
@@ -3191,7 +3191,7 @@
         <v>30554</v>
       </c>
       <c r="L61" s="3">
-        <f>K61/J61</f>
+        <f t="shared" si="1"/>
         <v>0.8948870292887029</v>
       </c>
     </row>
@@ -3230,7 +3230,7 @@
         <v>12286</v>
       </c>
       <c r="L62" s="3">
-        <f>K62/J62</f>
+        <f t="shared" si="1"/>
         <v>0.83669057451278706</v>
       </c>
     </row>
@@ -3269,7 +3269,7 @@
         <v>19069.115942028984</v>
       </c>
       <c r="L63" s="3">
-        <f>K63/J63</f>
+        <f t="shared" si="1"/>
         <v>0.56064543810963474</v>
       </c>
     </row>
@@ -3308,7 +3308,7 @@
         <v>26155.92105263158</v>
       </c>
       <c r="L64" s="3">
-        <f>K64/J64</f>
+        <f t="shared" si="1"/>
         <v>1.0290010741138562</v>
       </c>
     </row>
@@ -3347,7 +3347,7 @@
         <v>19184</v>
       </c>
       <c r="L65" s="3">
-        <f>K65/J65</f>
+        <f t="shared" si="1"/>
         <v>1.1023572514862436</v>
       </c>
       <c r="M65" s="3"/>
@@ -3387,7 +3387,7 @@
         <v>13469</v>
       </c>
       <c r="L66" s="3">
-        <f>K66/J66</f>
+        <f t="shared" si="1"/>
         <v>1.0365517479917334</v>
       </c>
     </row>
@@ -3426,7 +3426,7 @@
         <v>6764.2857142857147</v>
       </c>
       <c r="L67" s="3">
-        <f>K67/J67</f>
+        <f t="shared" si="1"/>
         <v>0.60477834623795113</v>
       </c>
     </row>
@@ -3465,7 +3465,7 @@
         <v>21274.074074074073</v>
       </c>
       <c r="L68" s="3">
-        <f>K68/J68</f>
+        <f t="shared" si="1"/>
         <v>1.3181962944229004</v>
       </c>
     </row>
@@ -3504,7 +3504,7 @@
         <v>14630</v>
       </c>
       <c r="L69" s="3">
-        <f>K69/J69</f>
+        <f t="shared" si="1"/>
         <v>1.1063922942206654</v>
       </c>
     </row>
@@ -3543,7 +3543,7 @@
         <v>19568.81868131868</v>
       </c>
       <c r="L70" s="3">
-        <f>K70/J70</f>
+        <f t="shared" si="1"/>
         <v>0.97155972182129891</v>
       </c>
     </row>
@@ -3582,7 +3582,7 @@
         <v>11783.333333333334</v>
       </c>
       <c r="L71" s="3">
-        <f>K71/J71</f>
+        <f t="shared" si="1"/>
         <v>0.94976928917703418</v>
       </c>
     </row>
@@ -3621,7 +3621,7 @@
         <v>9938</v>
       </c>
       <c r="L72" s="3">
-        <f>K72/J72</f>
+        <f t="shared" si="1"/>
         <v>0.93026061587824926</v>
       </c>
     </row>
@@ -3660,7 +3660,7 @@
         <v>8586</v>
       </c>
       <c r="L73" s="3">
-        <f>K73/J73</f>
+        <f t="shared" si="1"/>
         <v>0.52392381656804732</v>
       </c>
     </row>
